--- a/Excel/悖论模拟干员名单20240502作者版.xlsx
+++ b/Excel/悖论模拟干员名单20240502作者版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC63C769-6F45-4300-9F99-3666A3FDFCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F1FCA7-D099-48C9-BC49-9FA0E9F5D141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="3015" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="2790" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="543">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1053,75 +1053,27 @@
     <t>阿斯卡纶</t>
   </si>
   <si>
-    <t>maa://22765 (90.16), *maa://21915 (60.0)</t>
-  </si>
-  <si>
-    <t>maa://30766 (95.24)</t>
-  </si>
-  <si>
-    <t>*maa://30764 (79.31)</t>
-  </si>
-  <si>
-    <t>*maa://21624 (76.92)</t>
-  </si>
-  <si>
     <t>maa://21261 (100.0)</t>
   </si>
   <si>
     <t>maa://31694 (100.0)</t>
   </si>
   <si>
-    <t>maa://24370 (95.12)</t>
-  </si>
-  <si>
     <t>maa://32656 (100.0)</t>
   </si>
   <si>
-    <t>maa://24913 (92.0)</t>
-  </si>
-  <si>
-    <t>maa://24375 (90.32)</t>
-  </si>
-  <si>
-    <t>maa://24466 (96.97)</t>
-  </si>
-  <si>
     <t>maa://24376 (100.0)</t>
   </si>
   <si>
-    <t>maa://25176 (96.77)</t>
-  </si>
-  <si>
-    <t>maa://28624 (90.32), maa://24957 (96.77)</t>
-  </si>
-  <si>
     <t>maa://24377 (100.0)</t>
   </si>
   <si>
-    <t>maa://28071 (81.82)</t>
-  </si>
-  <si>
-    <t>*maa://30770 (67.86)</t>
-  </si>
-  <si>
-    <t>maa://28065 (96.67)</t>
-  </si>
-  <si>
     <t>maa://31836 (85.71), maa://30381 (100.0)</t>
   </si>
   <si>
-    <t>maa://22750 (95.65)</t>
-  </si>
-  <si>
-    <t>maa://22676 (91.25), *maa://22583 (74.36), *maa://22500 (51.61)</t>
-  </si>
-  <si>
     <t>maa://24381 (84.62)</t>
   </si>
   <si>
-    <t>maa://24382 (94.12)</t>
-  </si>
-  <si>
     <t>maa://26203 (100.0)</t>
   </si>
   <si>
@@ -1134,67 +1086,28 @@
     <t>maa://21993 (84.62)</t>
   </si>
   <si>
-    <t>maa://30624 (88.24)</t>
-  </si>
-  <si>
-    <t>maa://30711 (97.62), maa://30768 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24842 (100.0)</t>
-  </si>
-  <si>
     <t>maa://30713 (100.0)</t>
   </si>
   <si>
     <t>maa://21290 (100.0)</t>
   </si>
   <si>
-    <t>maa://21411 (96.89)</t>
-  </si>
-  <si>
     <t>maa://31386 (100.0)</t>
   </si>
   <si>
     <t>maa://34946 (100.0), maa://20110 (88.71)</t>
   </si>
   <si>
-    <t>*maa://28503 (61.11)</t>
-  </si>
-  <si>
-    <t>*maa://29890 (65.22)</t>
-  </si>
-  <si>
-    <t>maa://24389 (93.33)</t>
-  </si>
-  <si>
     <t>maa://24391 (100.0)</t>
   </si>
   <si>
-    <t>maa://29912 (100.0), maa://22516 (88.61), *maa://20794 (52.31)</t>
-  </si>
-  <si>
     <t>maa://24392 (100.0)</t>
   </si>
   <si>
-    <t>maa://26228 (94.44)</t>
-  </si>
-  <si>
     <t>maa://24393 (100.0)</t>
   </si>
   <si>
     <t>maa://23656 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://21289 (75.0)</t>
-  </si>
-  <si>
-    <t>*maa://24479 (79.63), *maa://21990 (54.17)</t>
-  </si>
-  <si>
-    <t>maa://31489 (90.0)</t>
-  </si>
-  <si>
-    <t>*maa://32650 (66.67)</t>
   </si>
   <si>
     <t>2024.04.21更新：增加每个作业好评率显示，删除好评率为0的作业</t>
@@ -1208,462 +1121,558 @@
     <t>maa://34494 (100.0), **maa://21283 (48.61)</t>
   </si>
   <si>
-    <t>**maa://24395 (47.06)</t>
-  </si>
-  <si>
-    <t>**maa://35616 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://32509 (100.0), *maa://31008 (76.32), *maa://27295 (80.0), maa://22754 (92.86), *maa://21746 (55.81)</t>
-  </si>
-  <si>
-    <t>**maa://32658 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://29863 (82.35), **maa://26013 (50.0), ***maa://22752 (15.38)</t>
-  </si>
-  <si>
-    <t>maa://31203 (92.31), ***maa://24394 (16.0)</t>
-  </si>
-  <si>
-    <t>maa://24632 (95.0), **maa://24303 (33.33), maa://22746 (100.0), maa://22499 (81.82)</t>
-  </si>
-  <si>
-    <t>maa://21955 (90.48)</t>
-  </si>
-  <si>
-    <t>**maa://28036 (32.61)</t>
-  </si>
-  <si>
-    <t>maa://21247 (98.29), maa://22748 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://24371 (51.92)</t>
-  </si>
-  <si>
-    <t>maa://32651 (100.0), *maa://30769 (75.0)</t>
-  </si>
-  <si>
-    <t>maa://24304 (85.82), maa://21478 (93.33)</t>
-  </si>
-  <si>
-    <t>maa://24421 (92.0)</t>
-  </si>
-  <si>
     <t>*maa://24374 (53.12)</t>
-  </si>
-  <si>
-    <t>*maa://30769 (75.0)</t>
-  </si>
-  <si>
-    <t>maa://31270 (96.49), maa://27746 (82.61)</t>
   </si>
   <si>
     <t>2024.04.30更新：修复关卡名包含干员名时导致的搜素错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maa://22757 (88.24)</t>
-  </si>
-  <si>
-    <t>maa://22762 (90.62)</t>
-  </si>
-  <si>
-    <t>*maa://21334 (61.9)</t>
-  </si>
-  <si>
     <t>*maa://21679 (76.47)</t>
   </si>
   <si>
     <t>maa://24378 (86.21)</t>
   </si>
   <si>
-    <t>maa://21249 (94.63), maa://28624 (90.32), maa://26254 (94.44), **maa://24303 (33.33)</t>
-  </si>
-  <si>
-    <t>maa://28624 (90.32), maa://21919 (100.0), maa://21281 (90.0)</t>
-  </si>
-  <si>
-    <t>*maa://30968 (58.33)</t>
-  </si>
-  <si>
-    <t>maa://21442 (99.4)</t>
-  </si>
-  <si>
-    <t>maa://22742 (90.99), *maa://20791 (59.38)</t>
-  </si>
-  <si>
-    <t>maa://24617 (85.33), **maa://20790 (42.62)</t>
-  </si>
-  <si>
-    <t>maa://21291 (86.21)</t>
-  </si>
-  <si>
-    <t>**maa://22866 (32.65), maa://26222 (94.74)</t>
-  </si>
-  <si>
-    <t>maa://24386 (98.04)</t>
-  </si>
-  <si>
-    <t>maa://31212 (92.31), maa://24387 (81.82)</t>
-  </si>
-  <si>
-    <t>*maa://29765 (55.81), maa://23263 (92.75)</t>
-  </si>
-  <si>
     <t>maa://28502 (100.0)</t>
   </si>
   <si>
-    <t>maa://32940 (100.0), maa://24388 (92.86)</t>
-  </si>
-  <si>
-    <t>maa://27613 (98.67)</t>
-  </si>
-  <si>
-    <t>maa://22399 (94.9), *maa://22758 (75.0)</t>
-  </si>
-  <si>
-    <t>maa://28501 (98.11), maa://28051 (95.45)</t>
-  </si>
-  <si>
-    <t>maa://21282 (99.29)</t>
-  </si>
-  <si>
-    <t>maa://22764 (97.22)</t>
-  </si>
-  <si>
     <t>maa://29652 (100.0)</t>
   </si>
   <si>
-    <t>maa://31215 (92.86), maa://24516 (80.52), maa://26001 (92.16)</t>
-  </si>
-  <si>
-    <t>*maa://30062 (59.26), ***maa://26209 (13.64)</t>
-  </si>
-  <si>
-    <t>*maa://33152 (58.33)</t>
-  </si>
-  <si>
-    <t>maa://20110 (88.71), *maa://21663 (60.0)</t>
-  </si>
-  <si>
-    <t>maa://29658 (93.94)</t>
-  </si>
-  <si>
-    <t>maa://29652 (100.0), maa://24023 (98.18)</t>
-  </si>
-  <si>
-    <t>maa://24702 (93.85), maa://25390 (97.51), maa://34787 (83.33)</t>
-  </si>
-  <si>
-    <t>maa://21245 (80.14), *maa://22744 (78.95)</t>
-  </si>
-  <si>
-    <t>maa://36673 (100.0), maa://24999 (91.1), *maa://21476 (67.86)</t>
-  </si>
-  <si>
-    <t>**maa://32237 (42.11), ***maa://34206 (11.11), ***maa://25695 (16.91)</t>
-  </si>
-  <si>
     <t>maa://36707 (100.0)</t>
   </si>
   <si>
-    <t>maa://36673 (100.0), maa://24999 (91.1), maa://25001 (84.38)</t>
-  </si>
-  <si>
-    <t>***maa://36048 (25.0), *maa://30808 (62.07), *maa://22743 (71.68), maa://22734 (83.67)</t>
-  </si>
-  <si>
-    <t>maa://21441 (95.79)</t>
-  </si>
-  <si>
-    <t>maa://24570 (96.26)</t>
-  </si>
-  <si>
-    <t>maa://25198 (97.01), maa://21432 (90.0), **maa://20795 (46.09)</t>
-  </si>
-  <si>
-    <t>maa://24368 (80.8)</t>
-  </si>
-  <si>
-    <t>maa://29753 (95.68)</t>
-  </si>
-  <si>
-    <t>maa://24465 (90.71), maa://25725 (81.36)</t>
-  </si>
-  <si>
     <t>历阵锐枪芬</t>
   </si>
   <si>
-    <t>maa://36660 (94.74), *maa://36701 (75.0), maa://21867 (92.11)</t>
-  </si>
-  <si>
-    <t>*maa://21248 (75.32), **maa://22728 (48.28)</t>
-  </si>
-  <si>
-    <t>maa://22430 (86.49), **maa://32658 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://22864 (87.13), *maa://21956 (78.38), maa://22730 (83.33)</t>
-  </si>
-  <si>
-    <t>maa://24372 (97.14)</t>
-  </si>
-  <si>
-    <t>maa://25236 (94.12), **maa://22735 (50.0), **maa://21678 (48.78)</t>
-  </si>
-  <si>
-    <t>*maa://29063 (77.78), *maa://25311 (77.03), ***maa://22725 (4.92)</t>
-  </si>
-  <si>
-    <t>*maa://25175 (76.67), maa://24379 (100.0)</t>
-  </si>
-  <si>
     <t>maa://32721 (100.0), **maa://24373 (31.82)</t>
   </si>
   <si>
-    <t>maa://21895 (96.86), **maa://20793 (38.78)</t>
-  </si>
-  <si>
-    <t>maa://36670 (100.0), maa://30434 (89.8), maa://25199 (87.63), maa://30711 (97.62), maa://30768 (100.0), ***maa://25036 (16.0), maa://21291 (86.21)</t>
-  </si>
-  <si>
-    <t>maa://22525 (92.63), maa://21284 (87.88)</t>
-  </si>
-  <si>
-    <t>maa://29768 (97.64), maa://27728 (95.79)</t>
-  </si>
-  <si>
-    <t>maa://30807 (97.06), maa://21229 (85.71), ***maa://20796 (14.29)</t>
-  </si>
-  <si>
-    <t>maa://35931 (97.37)</t>
-  </si>
-  <si>
-    <t>maa://27410 (96.2), maa://29661 (98.75), maa://28038 (90.0)</t>
-  </si>
-  <si>
-    <t>maa://32534 (92.82), **maa://32434 (36.84)</t>
-  </si>
-  <si>
-    <t>maa://32532 (91.3)</t>
-  </si>
-  <si>
-    <t>*maa://30515 (72.73), maa://34787 (83.33), *maa://24633 (53.79), ***maa://20792 (12.0), ***maa://29083 (28.57)</t>
-  </si>
-  <si>
-    <t>*maa://22880 (72.9), maa://20276 (80.73), *maa://22749 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://24839 (98.99)</t>
-  </si>
-  <si>
-    <t>maa://36674 (100.0), *maa://28648 (65.22), maa://21287 (87.5)</t>
-  </si>
-  <si>
-    <t>maa://26245 (95.87), maa://21288 (95.97)</t>
-  </si>
-  <si>
-    <t>maa://22466 (92.39), **maa://22732 (49.15), **maa://30050 (45.45), *maa://23168 (63.16)</t>
-  </si>
-  <si>
-    <t>maa://31731 (92.0)</t>
-  </si>
-  <si>
-    <t>maa://27127 (94.23), maa://22751 (84.62)</t>
-  </si>
-  <si>
-    <t>*maa://28440 (61.82), maa://28432 (92.86), maa://31400 (100.0), maa://25198 (97.01), maa://21432 (90.0), *maa://28650 (60.0)</t>
-  </si>
-  <si>
-    <t>maa://30442 (92.31)</t>
-  </si>
-  <si>
-    <t>maa://35926 (93.18), maa://36258 (88.24)</t>
-  </si>
-  <si>
-    <t>maa://32931 (88.46), *maa://21916 (58.93), maa://23252 (91.07), *maa://22759 (55.56)</t>
-  </si>
-  <si>
-    <t>*maa://22736 (78.69)</t>
-  </si>
-  <si>
-    <t>maa://28977 (93.94), *maa://23264 (62.26), maa://22762 (90.62)</t>
-  </si>
-  <si>
-    <t>maa://23250 (97.87), maa://20107 (86.67), maa://22772 (100.0), **maa://22745 (50.0)</t>
-  </si>
-  <si>
-    <t>*maa://30515 (72.73), maa://34787 (83.33), maa://24526 (91.8), *maa://24633 (53.79), maa://24762 (87.5), ***maa://20792 (12.0), ***maa://29083 (28.57), *maa://22727 (70.0)</t>
-  </si>
-  <si>
-    <t>maa://24762 (87.5), maa://28504 (89.47)</t>
-  </si>
-  <si>
-    <t>maa://31270 (96.49), maa://27746 (82.61), *maa://23890 (79.76), *maa://24940 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://21280 (87.74), maa://29863 (82.35), **maa://26013 (50.0), maa://24379 (100.0), maa://24380 (100.0), ***maa://22752 (15.38), *maa://21239 (70.0)</t>
-  </si>
-  <si>
-    <t>maa://30587 (90.83), *maa://29748 (73.21), ***maa://29785 (15.79)</t>
-  </si>
-  <si>
-    <t>**maa://30050 (45.45), *maa://23168 (63.16)</t>
-  </si>
-  <si>
-    <t>*maa://21956 (78.38), maa://22730 (83.33)</t>
-  </si>
-  <si>
-    <t>maa://21280 (87.74), *maa://21239 (70.0)</t>
-  </si>
-  <si>
-    <t>*maa://24383 (64.71)</t>
-  </si>
-  <si>
-    <t>maa://24709 (96.3)</t>
-  </si>
-  <si>
-    <t>maa://36664 (100.0), maa://23278 (95.96), maa://21386 (95.56)</t>
-  </si>
-  <si>
-    <t>**maa://36236 (33.33)</t>
-  </si>
-  <si>
     <t>维什戴尔</t>
   </si>
   <si>
-    <t>maa://27395 (97.0), maa://22755 (87.21), **maa://22756 (42.86), ***maa://21737 (10.61)</t>
-  </si>
-  <si>
-    <t>maa://22747 (95.45), maa://22501 (97.3)</t>
-  </si>
-  <si>
-    <t>maa://24709 (96.3), maa://21484 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://22521 (96.77), *maa://22471 (59.26)</t>
-  </si>
-  <si>
-    <t>maa://36674 (100.0), *maa://28648 (65.22), maa://22729 (94.17)</t>
-  </si>
-  <si>
-    <t>maa://24385 (96.15)</t>
-  </si>
-  <si>
-    <t>maa://20109 (92.72), maa://22466 (92.39), maa://22545 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24526 (91.8)</t>
-  </si>
-  <si>
     <t>逻各斯</t>
   </si>
   <si>
-    <t>maa://27484 (94.74), maa://27396 (85.66), *maa://29890 (65.22), maa://27480 (81.82)</t>
-  </si>
-  <si>
-    <t>maa://26223 (95.71)</t>
-  </si>
-  <si>
-    <t>maa://21282 (99.29), maa://22301 (97.95)</t>
-  </si>
-  <si>
-    <t>maa://36713 (97.37)</t>
-  </si>
-  <si>
-    <t>maa://22753 (90.35), *maa://21485 (79.0)</t>
-  </si>
-  <si>
-    <t>maa://34957 (90.91), *maa://22768 (55.17)</t>
-  </si>
-  <si>
-    <t>maa://21917 (96.23), *maa://22741 (80.0)</t>
-  </si>
-  <si>
-    <t>maa://29988 (89.71), maa://31400 (100.0), maa://23504 (92.47), *maa://25141 (76.19), **maa://22892 (38.1), ***maa://22815 (25.0)</t>
-  </si>
-  <si>
-    <t>maa://21246 (91.73)</t>
-  </si>
-  <si>
-    <t>maa://24390 (96.55)</t>
-  </si>
-  <si>
-    <t>maa://22739 (86.67)</t>
-  </si>
-  <si>
-    <t>**maa://35616 (50.0), maa://21442 (99.4), maa://23250 (97.87), maa://25389 (94.12), maa://20107 (86.67), maa://22772 (100.0), **maa://22745 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://28711 (87.5), ***maa://22740 (6.0), **maa://27377 (50.0), ***maa://25174 (20.0)</t>
-  </si>
-  <si>
-    <t>maa://23669 (95.88)</t>
-  </si>
-  <si>
-    <t>maa://36668 (100.0), *maa://30709 (55.52)</t>
-  </si>
-  <si>
-    <t>*maa://32495 (54.69), *maa://21443 (76.84), ***maa://23820 (29.41)</t>
-  </si>
-  <si>
     <t>魔王</t>
   </si>
   <si>
     <t>PhonoR-0</t>
   </si>
   <si>
-    <t>***maa://21730 (18.03), maa://25251 (94.12)</t>
-  </si>
-  <si>
-    <t>maa://36671 (100.0), *maa://26191 (70.18)</t>
-  </si>
-  <si>
-    <t>maa://26206 (95.65), **maa://22865 (44.44)</t>
-  </si>
-  <si>
-    <t>*maa://25021 (66.67), *maa://22733 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://36697 (81.82), *maa://30062 (59.26), maa://22676 (91.25), *maa://20106 (62.5), *maa://28932 (78.75), ***maa://26209 (13.64), *maa://22769 (68.0)</t>
-  </si>
-  <si>
-    <t>***maa://22737 (27.55)</t>
-  </si>
-  <si>
-    <t>maa://36666 (100.0), maa://21364 (80.08), *maa://22766 (72.34)</t>
-  </si>
-  <si>
-    <t>maa://21895 (96.86), *maa://23911 (59.21), *maa://21916 (58.93), *maa://21956 (78.38), maa://21917 (96.23), maa://27755 (89.36), maa://21919 (100.0), *maa://21915 (60.0), maa://21955 (90.48)</t>
-  </si>
-  <si>
-    <t>**maa://29784 (50.0), *maa://24313 (55.38)</t>
-  </si>
-  <si>
-    <t>maa://22524 (94.57), maa://22432 (84.38)</t>
-  </si>
-  <si>
-    <t>maa://36672 (100.0), maa://29910 (96.15), maa://22523 (85.21), **maa://21440 (34.55)</t>
-  </si>
-  <si>
-    <t>maa://24621 (96.88), maa://20108 (95.8), maa://22771 (90.91)</t>
-  </si>
-  <si>
-    <t>maa://30511 (90.48), **maa://29760 (37.5)</t>
-  </si>
-  <si>
-    <t>maa://36660 (94.74), *maa://36701 (75.0)</t>
-  </si>
-  <si>
-    <t>*maa://24080 (67.15), ***maa://34960 (10.0)</t>
-  </si>
-  <si>
-    <t>maa://36697 (81.82)</t>
-  </si>
-  <si>
-    <t>更新日期：2024.05.02</t>
+    <t>更新日期：2024.05.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maa://36681 (93.33), maa://34787 (85.19), maa://24702 (93.96), maa://25390 (97.17)</t>
+  </si>
+  <si>
+    <t>maa://36987 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24632 (94.5), **maa://24303 (37.5), maa://22746 (100.0), maa://22499 (81.82)</t>
+  </si>
+  <si>
+    <t>maa://21245 (80.39), maa://22744 (80.95)</t>
+  </si>
+  <si>
+    <t>maa://21955 (90.91)</t>
+  </si>
+  <si>
+    <t>maa://36673 (87.5), maa://24999 (91.3), *maa://21476 (62.86)</t>
+  </si>
+  <si>
+    <t>maa://22765 (91.04), *maa://21915 (60.0)</t>
+  </si>
+  <si>
+    <t>***maa://25695 (18.37), **maa://32237 (34.78), ***maa://34206 (7.14)</t>
+  </si>
+  <si>
+    <t>**maa://36678 (33.33), maa://30766 (87.5)</t>
+  </si>
+  <si>
+    <t>maa://36673 (87.5), maa://24999 (91.3), maa://25001 (85.29)</t>
+  </si>
+  <si>
+    <t>maa://30764 (81.82)</t>
+  </si>
+  <si>
+    <t>***maa://36048 (11.11), *maa://30808 (64.71), maa://22734 (84.76), *maa://22743 (72.73)</t>
+  </si>
+  <si>
+    <t>maa://36679 (87.5), maa://21441 (96.04)</t>
+  </si>
+  <si>
+    <t>*maa://21624 (78.57)</t>
+  </si>
+  <si>
+    <t>maa://24570 (95.87)</t>
+  </si>
+  <si>
+    <t>maa://36680 (100.0), maa://21432 (90.24), maa://25198 (97.26), **maa://20795 (47.01)</t>
+  </si>
+  <si>
+    <t>***maa://28036 (29.41)</t>
+  </si>
+  <si>
+    <t>maa://24368 (81.21)</t>
+  </si>
+  <si>
+    <t>maa://29753 (94.97)</t>
+  </si>
+  <si>
+    <t>maa://24465 (90.61), maa://25725 (82.54)</t>
+  </si>
+  <si>
+    <t>maa://21247 (97.62), maa://22748 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24370 (95.35)</t>
+  </si>
+  <si>
+    <t>*maa://24371 (50.91)</t>
+  </si>
+  <si>
+    <t>maa://32651 (100.0), *maa://30769 (77.78)</t>
+  </si>
+  <si>
+    <t>maa://36660 (95.54), *maa://36701 (66.67), maa://21867 (90.48)</t>
+  </si>
+  <si>
+    <t>*maa://21248 (74.39), **maa://22728 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://24304 (86.39), maa://21478 (93.33)</t>
+  </si>
+  <si>
+    <t>maa://22430 (87.26), **maa://32658 (40.0)</t>
+  </si>
+  <si>
+    <t>maa://24421 (92.59)</t>
+  </si>
+  <si>
+    <t>*maa://21956 (79.13), maa://22864 (87.85), maa://22730 (80.77)</t>
+  </si>
+  <si>
+    <t>maa://24372 (97.22)</t>
+  </si>
+  <si>
+    <t>maa://25236 (94.55), **maa://21678 (48.78), **maa://22735 (50.0)</t>
+  </si>
+  <si>
+    <t>*maa://29063 (78.02), *maa://25311 (77.22), ***maa://22725 (4.92)</t>
+  </si>
+  <si>
+    <t>maa://24913 (92.31)</t>
+  </si>
+  <si>
+    <t>*maa://25175 (76.47), maa://24379 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://36667 (100.0), maa://21895 (96.93), **maa://20793 (38.78)</t>
+  </si>
+  <si>
+    <t>maa://24375 (90.91)</t>
+  </si>
+  <si>
+    <t>maa://36670 (100.0), maa://30434 (90.0), maa://30711 (97.78), maa://25199 (87.0), maa://30768 (100.0), ***maa://25036 (16.0), maa://21291 (87.88)</t>
+  </si>
+  <si>
+    <t>maa://24466 (97.14)</t>
+  </si>
+  <si>
+    <t>maa://22525 (92.93), maa://21284 (82.86)</t>
+  </si>
+  <si>
+    <t>maa://29768 (97.99), maa://27728 (95.83)</t>
+  </si>
+  <si>
+    <t>maa://30807 (95.65), maa://21229 (86.06), ***maa://20796 (14.29)</t>
+  </si>
+  <si>
+    <t>maa://35931 (94.35)</t>
+  </si>
+  <si>
+    <t>maa://27410 (96.38), maa://29661 (98.91), maa://28038 (84.62)</t>
+  </si>
+  <si>
+    <t>*maa://30769 (77.78)</t>
+  </si>
+  <si>
+    <t>maa://32534 (92.46), **maa://32434 (33.33)</t>
+  </si>
+  <si>
+    <t>maa://32532 (91.61)</t>
+  </si>
+  <si>
+    <t>maa://25176 (97.06)</t>
+  </si>
+  <si>
+    <t>maa://31270 (96.92), maa://27746 (82.8)</t>
+  </si>
+  <si>
+    <t>maa://34787 (85.19), *maa://30515 (71.74), *maa://24633 (54.05), ***maa://20792 (11.93), ***maa://29083 (28.57)</t>
+  </si>
+  <si>
+    <t>*maa://22880 (74.34), maa://20276 (80.36), *maa://22749 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://22757 (84.21)</t>
+  </si>
+  <si>
+    <t>maa://24839 (99.03)</t>
+  </si>
+  <si>
+    <t>maa://28624 (91.67), maa://24957 (96.77)</t>
+  </si>
+  <si>
+    <t>maa://22762 (90.91)</t>
+  </si>
+  <si>
+    <t>**maa://24395 (45.0)</t>
+  </si>
+  <si>
+    <t>*maa://36674 (77.78), *maa://28648 (65.96), maa://21287 (87.84)</t>
+  </si>
+  <si>
+    <t>maa://36682 (100.0), maa://26245 (96.03), maa://21288 (96.0)</t>
+  </si>
+  <si>
+    <t>*maa://21334 (59.09)</t>
+  </si>
+  <si>
+    <t>maa://22466 (92.08), *maa://22732 (51.61), **maa://30050 (41.67), *maa://23168 (62.5)</t>
+  </si>
+  <si>
+    <t>maa://31731 (92.59)</t>
+  </si>
+  <si>
+    <t>maa://27127 (93.44), *maa://22751 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://28071 (83.33)</t>
+  </si>
+  <si>
+    <t>*maa://30770 (70.97)</t>
+  </si>
+  <si>
+    <t>maa://36680 (100.0), *maa://28440 (67.69), maa://28432 (92.95), maa://31400 (100.0), maa://21432 (90.24), maa://25198 (97.26), *maa://28650 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://30442 (92.86)</t>
+  </si>
+  <si>
+    <t>maa://35926 (93.08), *maa://36258 (72.97)</t>
+  </si>
+  <si>
+    <t>maa://28065 (96.88)</t>
+  </si>
+  <si>
+    <t>maa://21249 (95.03), maa://28624 (91.67), maa://26254 (94.74), **maa://24303 (37.5)</t>
+  </si>
+  <si>
+    <t>maa://28624 (91.67), maa://21919 (100.0), maa://21281 (90.91)</t>
+  </si>
+  <si>
+    <t>maa://22750 (95.83)</t>
+  </si>
+  <si>
+    <t>maa://32931 (90.7), *maa://21916 (58.93), maa://23252 (91.8), **maa://22759 (45.45)</t>
+  </si>
+  <si>
+    <t>*maa://22736 (78.79)</t>
+  </si>
+  <si>
+    <t>maa://36669 (100.0), maa://28977 (94.29), maa://22762 (90.91), *maa://23264 (62.26)</t>
+  </si>
+  <si>
+    <t>maa://22676 (90.8), *maa://22583 (75.0), *maa://22500 (57.14)</t>
+  </si>
+  <si>
+    <t>maa://23250 (97.99), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://34787 (85.19), maa://24526 (92.23), *maa://30515 (71.74), maa://24762 (87.72), *maa://24633 (54.05), ***maa://20792 (11.93), ***maa://29083 (28.57), *maa://22727 (70.0)</t>
+  </si>
+  <si>
+    <t>maa://24762 (87.72), maa://28504 (90.0)</t>
+  </si>
+  <si>
+    <t>maa://31270 (96.92), maa://27746 (82.8), maa://23890 (80.9), *maa://24940 (68.0)</t>
+  </si>
+  <si>
+    <t>maa://21280 (88.41), maa://29863 (84.21), maa://24379 (100.0), **maa://26013 (50.0), maa://24380 (100.0), ***maa://22752 (15.38), *maa://21239 (70.0)</t>
+  </si>
+  <si>
+    <t>maa://37442 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30587 (91.11), *maa://29748 (73.91), ***maa://29785 (15.87)</t>
+  </si>
+  <si>
+    <t>maa://24382 (94.44)</t>
+  </si>
+  <si>
+    <t>**maa://30968 (50.0)</t>
+  </si>
+  <si>
+    <t>**maa://30050 (41.67), *maa://23168 (62.5)</t>
+  </si>
+  <si>
+    <t>maa://21442 (99.44)</t>
+  </si>
+  <si>
+    <t>*maa://21956 (79.13), maa://22730 (80.77)</t>
+  </si>
+  <si>
+    <t>maa://21280 (88.41), *maa://21239 (70.0)</t>
+  </si>
+  <si>
+    <t>*maa://24383 (64.29)</t>
+  </si>
+  <si>
+    <t>maa://24709 (95.29)</t>
+  </si>
+  <si>
+    <t>maa://36664 (91.67), maa://23278 (96.03), maa://21386 (95.58)</t>
+  </si>
+  <si>
+    <t>**maa://35616 (33.33)</t>
+  </si>
+  <si>
+    <t>***maa://36236 (22.22)</t>
+  </si>
+  <si>
+    <t>**maa://36237 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://22742 (91.74), *maa://20791 (59.38)</t>
+  </si>
+  <si>
+    <t>**maa://37170 (50.0), maa://24617 (85.37), **maa://20790 (42.62)</t>
+  </si>
+  <si>
+    <t>maa://32509 (100.0), *maa://31008 (76.92), *maa://27295 (80.0), maa://22754 (92.86), *maa://21746 (55.81)</t>
+  </si>
+  <si>
+    <t>maa://21291 (87.88)</t>
+  </si>
+  <si>
+    <t>maa://26222 (95.45), **maa://22866 (32.0)</t>
+  </si>
+  <si>
+    <t>maa://27395 (97.22), maa://22755 (86.67), **maa://22756 (42.86), ***maa://21737 (10.61)</t>
+  </si>
+  <si>
+    <t>maa://22747 (95.76), maa://22501 (97.37)</t>
+  </si>
+  <si>
+    <t>maa://24709 (95.29), maa://21484 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://22471 (58.62), maa://22521 (97.01)</t>
+  </si>
+  <si>
+    <t>*maa://36674 (77.78), *maa://28648 (65.96), maa://22729 (94.44)</t>
+  </si>
+  <si>
+    <t>maa://24385 (96.3)</t>
+  </si>
+  <si>
+    <t>maa://24386 (98.18)</t>
+  </si>
+  <si>
+    <t>maa://31212 (93.33), maa://24387 (81.82)</t>
+  </si>
+  <si>
+    <t>maa://20109 (92.9), maa://22466 (92.08), maa://22545 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30624 (90.0)</t>
+  </si>
+  <si>
+    <t>*maa://29765 (60.71), maa://23263 (93.24)</t>
+  </si>
+  <si>
+    <t>*maa://32940 (80.0), maa://24388 (93.33)</t>
+  </si>
+  <si>
+    <t>maa://30711 (97.78), maa://30768 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24526 (92.23)</t>
+  </si>
+  <si>
+    <t>maa://24842 (97.22)</t>
+  </si>
+  <si>
+    <t>maa://27613 (98.73)</t>
+  </si>
+  <si>
+    <t>maa://27484 (96.36), maa://27396 (86.15), *maa://29890 (71.43), maa://27480 (81.82)</t>
+  </si>
+  <si>
+    <t>maa://22399 (92.73), *maa://22758 (72.22)</t>
+  </si>
+  <si>
+    <t>maa://21411 (97.12)</t>
+  </si>
+  <si>
+    <t>maa://26223 (96.0)</t>
+  </si>
+  <si>
+    <t>maa://21282 (99.32), maa://22301 (97.45)</t>
+  </si>
+  <si>
+    <t>maa://36713 (97.88)</t>
+  </si>
+  <si>
+    <t>maa://22753 (91.06), *maa://21485 (79.82)</t>
+  </si>
+  <si>
+    <t>maa://34957 (85.71), *maa://22768 (53.33)</t>
+  </si>
+  <si>
+    <t>maa://28501 (98.31), maa://28051 (95.45)</t>
+  </si>
+  <si>
+    <t>maa://21917 (96.43), *maa://22741 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://21282 (99.32)</t>
+  </si>
+  <si>
+    <t>*maa://28503 (61.54)</t>
+  </si>
+  <si>
+    <t>maa://36663 (89.66), maa://29988 (88.44), maa://31400 (100.0), *maa://25141 (76.99), maa://23504 (92.21), **maa://22892 (40.0), ***maa://22815 (24.0)</t>
+  </si>
+  <si>
+    <t>*maa://29890 (71.43)</t>
+  </si>
+  <si>
+    <t>maa://24389 (94.44)</t>
+  </si>
+  <si>
+    <t>maa://36684 (100.0), maa://21246 (92.06)</t>
+  </si>
+  <si>
+    <t>maa://24390 (93.55)</t>
+  </si>
+  <si>
+    <t>**maa://32658 (40.0)</t>
+  </si>
+  <si>
+    <t>maa://29863 (84.21), **maa://26013 (50.0), ***maa://22752 (15.38)</t>
+  </si>
+  <si>
+    <t>maa://22739 (88.24)</t>
+  </si>
+  <si>
+    <t>maa://21442 (99.44), maa://23250 (97.99), **maa://35616 (33.33), maa://25389 (95.0), maa://20107 (87.1), maa://22772 (100.0), **maa://22745 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://28711 (87.5), ***maa://22740 (6.0), ***maa://25174 (20.0), **maa://27377 (46.15)</t>
+  </si>
+  <si>
+    <t>maa://29912 (100.0), maa://22516 (88.75), *maa://20794 (52.31)</t>
+  </si>
+  <si>
+    <t>maa://36677 (100.0), maa://23669 (95.63)</t>
+  </si>
+  <si>
+    <t>maa://22764 (95.12)</t>
+  </si>
+  <si>
+    <t>maa://26228 (94.83)</t>
+  </si>
+  <si>
+    <t>**maa://36668 (36.36), *maa://30709 (54.46)</t>
+  </si>
+  <si>
+    <t>*maa://21443 (77.35), **maa://32495 (47.9), ***maa://23820 (28.85)</t>
+  </si>
+  <si>
+    <t>maa://31215 (91.67), maa://24516 (81.48), maa://26001 (92.31)</t>
+  </si>
+  <si>
+    <t>**maa://36675 (50.0), ***maa://21730 (17.74), maa://25251 (92.59)</t>
+  </si>
+  <si>
+    <t>*maa://21289 (69.23)</t>
+  </si>
+  <si>
+    <t>*maa://30062 (63.33), ***maa://26209 (13.64)</t>
+  </si>
+  <si>
+    <t>*maa://33152 (60.0)</t>
+  </si>
+  <si>
+    <t>*maa://36671 (76.92), *maa://26191 (70.97)</t>
+  </si>
+  <si>
+    <t>*maa://24479 (78.33), *maa://21990 (56.0)</t>
+  </si>
+  <si>
+    <t>maa://26206 (91.67), **maa://22865 (44.44)</t>
+  </si>
+  <si>
+    <t>*maa://25021 (62.5), *maa://22733 (64.0)</t>
+  </si>
+  <si>
+    <t>maa://31203 (92.86), ***maa://24394 (16.0)</t>
+  </si>
+  <si>
+    <t>maa://36697 (87.18), *maa://30062 (63.33), *maa://28932 (77.27), maa://22676 (90.8), *maa://20106 (63.3), ***maa://26209 (13.64), *maa://22769 (62.96)</t>
+  </si>
+  <si>
+    <t>***maa://22737 (27.1)</t>
+  </si>
+  <si>
+    <t>maa://36666 (81.82), maa://21364 (80.8), *maa://22766 (72.63)</t>
+  </si>
+  <si>
+    <t>maa://36667 (100.0), maa://21895 (96.93), *maa://21956 (79.13), maa://27755 (91.07), maa://21917 (96.43), *maa://21916 (58.93), *maa://23911 (58.97), maa://21919 (100.0), *maa://21915 (60.0), maa://21955 (90.91)</t>
+  </si>
+  <si>
+    <t>*maa://29784 (52.17), *maa://24313 (55.64)</t>
+  </si>
+  <si>
+    <t>maa://20110 (88.71), *maa://21663 (60.78)</t>
+  </si>
+  <si>
+    <t>maa://22524 (94.2), maa://22432 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://29658 (94.29)</t>
+  </si>
+  <si>
+    <t>maa://31489 (91.67)</t>
+  </si>
+  <si>
+    <t>maa://36672 (91.67), maa://22523 (85.38), maa://29910 (96.88), **maa://21440 (34.55)</t>
+  </si>
+  <si>
+    <t>maa://36676 (100.0), maa://24621 (97.03), maa://20108 (95.9), maa://22771 (90.91)</t>
+  </si>
+  <si>
+    <t>maa://30511 (90.91), **maa://29760 (37.5)</t>
+  </si>
+  <si>
+    <t>maa://29652 (100.0), maa://24023 (98.28)</t>
+  </si>
+  <si>
+    <t>maa://36660 (95.54), *maa://36701 (66.67)</t>
+  </si>
+  <si>
+    <t>*maa://24080 (67.35), ***maa://34960 (8.33)</t>
+  </si>
+  <si>
+    <t>*maa://32650 (71.43)</t>
+  </si>
+  <si>
+    <t>maa://36697 (87.18)</t>
   </si>
 </sst>
 </file>
@@ -2028,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:C46"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AE38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2147,10 +2156,10 @@
         <v>40</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>436</v>
+        <v>373</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -2168,7 +2177,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>157</v>
@@ -2186,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>12</v>
@@ -2201,19 +2210,19 @@
         <v>268</v>
       </c>
       <c r="Z2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>295</v>
       </c>
       <c r="AD2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -2221,10 +2230,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>374</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>68</v>
@@ -2233,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>126</v>
@@ -2242,7 +2251,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>158</v>
@@ -2251,16 +2260,16 @@
         <v>4</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>204</v>
       </c>
       <c r="R3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>243</v>
@@ -2269,7 +2278,7 @@
         <v>4</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>269</v>
@@ -2278,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>296</v>
@@ -2287,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>381</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -2298,7 +2307,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>69</v>
@@ -2334,7 +2343,7 @@
         <v>5</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>390</v>
+        <v>469</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>244</v>
@@ -2352,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>391</v>
+        <v>505</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>297</v>
@@ -2361,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>431</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -2372,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>70</v>
@@ -2390,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>160</v>
@@ -2399,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>206</v>
@@ -2417,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>271</v>
@@ -2426,7 +2435,7 @@
         <v>3</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>392</v>
+        <v>506</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>298</v>
@@ -2455,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>129</v>
@@ -2464,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>161</v>
@@ -2473,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>207</v>
@@ -2481,9 +2490,6 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="U6" s="1" t="s">
         <v>246</v>
       </c>
@@ -2500,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>299</v>
@@ -2509,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>432</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -2520,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>72</v>
@@ -2538,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>162</v>
@@ -2547,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>356</v>
+        <v>443</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>208</v>
@@ -2556,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>247</v>
@@ -2565,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>273</v>
@@ -2583,7 +2589,7 @@
         <v>2</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -2594,7 +2600,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>438</v>
+        <v>378</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
@@ -2603,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>131</v>
@@ -2621,7 +2627,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>209</v>
@@ -2639,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>274</v>
@@ -2648,7 +2654,7 @@
         <v>7</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>301</v>
@@ -2657,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -2668,7 +2674,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>74</v>
@@ -2686,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>164</v>
@@ -2695,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>210</v>
@@ -2704,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>249</v>
@@ -2713,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>275</v>
@@ -2722,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>302</v>
@@ -2731,7 +2737,7 @@
         <v>2</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -2742,7 +2748,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>439</v>
+        <v>380</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>75</v>
@@ -2751,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>133</v>
@@ -2760,16 +2766,16 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>165</v>
       </c>
       <c r="N10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>211</v>
@@ -2778,7 +2784,7 @@
         <v>4</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>250</v>
@@ -2787,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>276</v>
@@ -2796,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>303</v>
@@ -2805,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -2816,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>440</v>
+        <v>365</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>76</v>
@@ -2834,7 +2840,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>166</v>
@@ -2852,7 +2858,7 @@
         <v>2</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>251</v>
@@ -2861,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>277</v>
@@ -2870,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>376</v>
+        <v>510</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>304</v>
@@ -2879,7 +2885,7 @@
         <v>2</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>393</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -2887,10 +2893,10 @@
         <v>50</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>77</v>
@@ -2899,7 +2905,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>135</v>
@@ -2935,16 +2941,16 @@
         <v>2</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>278</v>
       </c>
       <c r="Z12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>305</v>
@@ -2953,7 +2959,7 @@
         <v>7</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -2964,7 +2970,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>78</v>
@@ -2973,7 +2979,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>136</v>
@@ -2991,7 +2997,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>357</v>
+        <v>447</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>214</v>
@@ -3000,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>253</v>
@@ -3009,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>279</v>
@@ -3018,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>306</v>
@@ -3027,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -3038,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>79</v>
@@ -3047,16 +3053,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>169</v>
@@ -3065,7 +3071,7 @@
         <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>215</v>
@@ -3074,7 +3080,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>254</v>
@@ -3082,9 +3088,6 @@
       <c r="V14" s="1">
         <v>0</v>
       </c>
-      <c r="W14" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="Y14" s="1" t="s">
         <v>280</v>
       </c>
@@ -3092,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>428</v>
+        <v>512</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>307</v>
@@ -3112,7 +3115,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>442</v>
+        <v>384</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>80</v>
@@ -3121,7 +3124,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>138</v>
@@ -3130,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>170</v>
@@ -3139,7 +3142,7 @@
         <v>8</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>216</v>
@@ -3148,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>255</v>
@@ -3175,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -3183,10 +3186,10 @@
         <v>54</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>443</v>
+        <v>385</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>81</v>
@@ -3204,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>171</v>
@@ -3213,7 +3216,7 @@
         <v>2</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>217</v>
@@ -3222,7 +3225,7 @@
         <v>3</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>256</v>
@@ -3231,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>282</v>
@@ -3240,16 +3243,16 @@
         <v>1</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>378</v>
+        <v>513</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>309</v>
       </c>
       <c r="AD16" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -3260,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>82</v>
@@ -3269,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>140</v>
@@ -3278,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>172</v>
@@ -3287,7 +3290,7 @@
         <v>4</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>218</v>
@@ -3334,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>83</v>
@@ -3352,7 +3355,7 @@
         <v>4</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>173</v>
@@ -3361,7 +3364,7 @@
         <v>7</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>219</v>
@@ -3370,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>258</v>
@@ -3379,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>284</v>
@@ -3388,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>311</v>
@@ -3397,7 +3400,7 @@
         <v>2</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -3444,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>259</v>
@@ -3453,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>285</v>
@@ -3462,7 +3465,7 @@
         <v>2</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>312</v>
@@ -3471,7 +3474,7 @@
         <v>2</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>433</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -3479,10 +3482,10 @@
         <v>58</v>
       </c>
       <c r="B20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>445</v>
+        <v>388</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -3491,7 +3494,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>143</v>
@@ -3506,10 +3509,10 @@
         <v>175</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>66</v>
+        <v>453</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>221</v>
@@ -3518,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>260</v>
@@ -3556,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
@@ -3565,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>144</v>
@@ -3574,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>176</v>
@@ -3583,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>222</v>
@@ -3592,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>261</v>
@@ -3601,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>287</v>
@@ -3610,7 +3613,7 @@
         <v>3</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>314</v>
@@ -3639,7 +3642,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>145</v>
@@ -3648,7 +3651,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>177</v>
@@ -3672,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>427</v>
+        <v>498</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>288</v>
@@ -3681,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>315</v>
@@ -3690,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>434</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -3701,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>88</v>
@@ -3728,7 +3731,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>224</v>
@@ -3737,7 +3740,7 @@
         <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>263</v>
@@ -3746,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>372</v>
+        <v>499</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>289</v>
@@ -3755,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>429</v>
+        <v>364</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>316</v>
@@ -3764,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>383</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -3775,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>446</v>
+        <v>390</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>89</v>
@@ -3817,10 +3820,10 @@
         <v>264</v>
       </c>
       <c r="V24" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>290</v>
@@ -3838,7 +3841,7 @@
         <v>4</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -3849,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>90</v>
@@ -3858,7 +3861,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>148</v>
@@ -3867,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>180</v>
@@ -3876,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>359</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>226</v>
@@ -3885,7 +3888,7 @@
         <v>3</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>265</v>
@@ -3894,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>373</v>
+        <v>501</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>291</v>
@@ -3903,16 +3906,16 @@
         <v>3</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>430</v>
+        <v>516</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>318</v>
       </c>
       <c r="AD25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -3932,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>345</v>
+        <v>406</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>149</v>
@@ -3950,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>227</v>
@@ -3968,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>374</v>
+        <v>502</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>292</v>
@@ -3986,7 +3989,7 @@
         <v>2</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -4006,7 +4009,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>150</v>
@@ -4015,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>352</v>
+        <v>435</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>182</v>
@@ -4033,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>364</v>
+        <v>481</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>267</v>
@@ -4060,7 +4063,7 @@
         <v>2</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>435</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -4071,7 +4074,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>448</v>
+        <v>392</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>93</v>
@@ -4089,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>353</v>
+        <v>436</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>183</v>
@@ -4107,7 +4110,7 @@
         <v>2</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>18</v>
@@ -4134,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -4145,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>94</v>
@@ -4154,16 +4157,16 @@
         <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>152</v>
       </c>
       <c r="J29" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>184</v>
@@ -4172,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>230</v>
@@ -4181,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>422</v>
+        <v>363</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>23</v>
@@ -4208,7 +4211,7 @@
         <v>2</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -4237,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>185</v>
@@ -4246,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>231</v>
@@ -4255,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>31</v>
@@ -4302,7 +4305,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>458</v>
+        <v>367</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>154</v>
@@ -4311,7 +4314,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>186</v>
@@ -4329,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>365</v>
+        <v>484</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>37</v>
@@ -4352,7 +4355,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>449</v>
+        <v>366</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>326</v>
@@ -4364,10 +4367,10 @@
         <v>97</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>155</v>
@@ -4376,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>354</v>
+        <v>440</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>187</v>
@@ -4385,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>233</v>
@@ -4397,7 +4400,7 @@
         <v>326</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>521</v>
+        <v>370</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>326</v>
@@ -4441,7 +4444,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>234</v>
@@ -4453,7 +4456,7 @@
         <v>66</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>522</v>
+        <v>371</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>326</v>
@@ -4506,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>20</v>
@@ -4515,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>384</v>
+        <v>541</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -4553,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>366</v>
+        <v>486</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>333</v>
@@ -4573,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>27</v>
@@ -4600,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>334</v>
@@ -4620,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>39</v>
@@ -4638,7 +4641,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>238</v>
@@ -4661,7 +4664,7 @@
     </row>
     <row r="38" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -4690,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>239</v>
@@ -4699,7 +4702,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>336</v>
@@ -4708,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4722,7 +4725,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>194</v>
@@ -4731,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>240</v>
@@ -4765,7 +4768,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>241</v>
@@ -4788,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>347</v>
+        <v>411</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>196</v>
@@ -4797,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>389</v>
+        <v>464</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>242</v>
@@ -4811,7 +4814,7 @@
     </row>
     <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>539</v>
+        <v>372</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4831,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>22</v>
@@ -4854,7 +4857,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>198</v>
@@ -4886,7 +4889,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>199</v>
@@ -4909,7 +4912,7 @@
     </row>
     <row r="45" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4920,13 +4923,16 @@
         <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>200</v>
       </c>
       <c r="N45" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>332</v>
@@ -4949,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>464</v>
+        <v>415</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>201</v>
@@ -4961,7 +4967,7 @@
         <v>326</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>504</v>
+        <v>369</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>326</v>
@@ -4972,7 +4978,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4983,7 +4989,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>465</v>
+        <v>416</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>202</v>
@@ -5066,10 +5072,10 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>495</v>
+        <v>368</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>326</v>
@@ -5086,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="5:15" x14ac:dyDescent="0.2">
@@ -5097,7 +5103,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>466</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="5:15" x14ac:dyDescent="0.2">
@@ -5119,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>467</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="5:15" x14ac:dyDescent="0.2">
@@ -5141,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>349</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="5:15" x14ac:dyDescent="0.2">
@@ -5163,7 +5169,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="5:15" x14ac:dyDescent="0.2">
